--- a/QuotingSheet.xlsx
+++ b/QuotingSheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1D42B-E3FF-4972-9220-12E9A5FFD3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A6443-F53A-4984-9677-B880C6E03096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24540" windowHeight="15720" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24540" windowHeight="15720" tabRatio="755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SHEET_NAME" sheetId="37" r:id="rId1"/>
+    <sheet name="Battery Shelf" sheetId="49" r:id="rId1"/>
     <sheet name="Printers" sheetId="14" r:id="rId2"/>
     <sheet name="Materials" sheetId="15" r:id="rId3"/>
     <sheet name="General" sheetId="16" r:id="rId4"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Customer details</t>
   </si>
@@ -165,6 +187,12 @@
     <t>Miscellaneous</t>
   </si>
   <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -264,33 +292,34 @@
     <t>California Filament PETG</t>
   </si>
   <si>
-    <t>Start-Up Time</t>
+    <t>Start Up Time</t>
+  </si>
+  <si>
+    <t>Hardware Markup</t>
+  </si>
+  <si>
+    <t>Battery Shelf</t>
+  </si>
+  <si>
+    <t>Hercules Candy</t>
   </si>
   <si>
     <t>Sovol SV06 Plus</t>
-  </si>
-  <si>
-    <t>CUTOMER NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;#&quot; € &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00;[Red][$$-409]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="h:mm;@"/>
-    <numFmt numFmtId="172" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="175" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+    <numFmt numFmtId="170" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -427,8 +456,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +534,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
@@ -655,16 +696,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -679,11 +714,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,20 +737,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,10 +762,14 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -820,7 +862,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{00000001-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -834,7 +876,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{00000003-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -848,7 +890,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{00000005-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -862,7 +904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{00000007-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -876,7 +918,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{00000009-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -890,7 +932,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{0000000B-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -904,7 +946,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-8D3B-4F65-8ED4-D165C4278FF8}"/>
+                <c16:uniqueId val="{0000000D-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -950,7 +992,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SHEET_NAME!$D$15:$D$21</c:f>
+              <c:f>'Battery Shelf'!$D$15:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -963,7 +1005,7 @@
                   <c:v>Printer depreciation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Computer Work</c:v>
+                  <c:v>Consumables</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Preparation</c:v>
@@ -972,44 +1014,44 @@
                   <c:v>Post-processing</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Consumables</c:v>
+                  <c:v>Computer Work</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SHEET_NAME!$E$15:$E$21</c:f>
+              <c:f>'Battery Shelf'!$E$15:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.0007576</c:v>
+                  <c:v>13.5990076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70655999999999997</c:v>
+                  <c:v>0.3359375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8879999999999999</c:v>
+                  <c:v>2.2395833333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>468.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-8D3B-4F65-8ED4-D165C4278FF8}"/>
+              <c16:uniqueId val="{0000000E-BAA3-4EC7-8EFB-02F9EDE6DED8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1053,17 +1095,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246979</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>24140</xdr:rowOff>
+      <xdr:rowOff>52715</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5753862" cy="4295119"/>
+    <xdr:ext cx="4829265" cy="3414385"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31ACB93-D226-4592-A4B1-5D7E531DFF47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72CCBF7-FE9D-4886-950E-B356CAAB43E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,10 +1126,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2421,26 +2459,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51187BC7-DEE2-40AF-BFE6-7E32F1B9EA0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EEA916-AEA0-4553-954C-C9A12A1D559E}">
   <sheetPr>
     <tabColor rgb="FFED7D31"/>
   </sheetPr>
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="1024" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2450,40 +2487,37 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="G3" s="2" t="str">
-        <f>B9</f>
-        <v>Sovol SV06 Plus</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f>B10</f>
-        <v>California Filament PETG</v>
-      </c>
+      <c r="B3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="G3" s="46" t="str">
+        <f>CONCATENATE(B9," | ", B10)</f>
+        <v>Sovol SV06 Plus | California Filament PETG</v>
+      </c>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>44838</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B4" s="2">
+        <v>45066</v>
+      </c>
+      <c r="G4" s="3">
         <f>B11</f>
-        <v>500.24</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>523.24</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2491,35 +2525,35 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="G5" s="7">
+      <c r="B5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="G5" s="5">
         <f>D12</f>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>17.916666666666668</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>E27</f>
-        <v>108.64477404000002</v>
-      </c>
-      <c r="H6" s="6" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="4" t="str">
         <f>General!$B$6&amp;" || suggested price"</f>
         <v>$ || suggested price</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f>E28</f>
-        <v>134.99</v>
-      </c>
-      <c r="H7" s="10" t="str">
+        <v>534.94811373333334</v>
+      </c>
+      <c r="H7" s="8" t="str">
         <f>General!$B$6&amp;" || quoted"</f>
         <v>$ || quoted</v>
       </c>
@@ -2530,66 +2564,63 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
-      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12">
-        <v>500.24</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10">
+        <v>523.24</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f>(B11/VLOOKUP(B10,Materials!A2:I100,5,FALSE()))*4/(VLOOKUP(B10,Materials!A2:I100,2,FALSE())^2*PI())</f>
-        <v>163.76033420750579</v>
+        <v>171.28969548763661</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="48">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="39">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f>SUM(B12+VLOOKUP($B$9,Printers!$A$2:$H$96,7,FALSE()))*1440/60</f>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>17.916666666666668</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
@@ -2604,68 +2635,70 @@
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12">
-        <v>45</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10">
+        <f>SUM(360+180)</f>
+        <v>540</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36">
         <f>B11/1000*VLOOKUP(B10,Materials!A2:I100,9,FALSE())</f>
-        <v>12.0007576</v>
-      </c>
-      <c r="F15" s="13" t="str">
+        <v>13.5990076</v>
+      </c>
+      <c r="F15" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="10">
+        <f>SUM(45+40)</f>
+        <v>85</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f>D12*VLOOKUP(B9,Printers!A2:H96,6,FALSE())*General!B2</f>
-        <v>0.70655999999999997</v>
-      </c>
-      <c r="F16" s="13" t="str">
+        <v>0.3359375</v>
+      </c>
+      <c r="F16" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="13">
         <f>SUM(B14:B16)</f>
-        <v>60</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f>D12*VLOOKUP(B9,Printers!A2:H96,6,FALSE())</f>
-        <v>5.8879999999999999</v>
-      </c>
-      <c r="F17" s="13" t="str">
+        <v>2.2395833333333335</v>
+      </c>
+      <c r="F17" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
@@ -2676,95 +2709,95 @@
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33">
-        <f>B17/60*General!B3</f>
-        <v>45</v>
-      </c>
-      <c r="F18" s="13" t="str">
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="40">
+        <f>B30</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <f>B21/60*General!B4</f>
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="13" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <f>B27/60*General!B4</f>
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="13" t="str">
+        <v>1.25</v>
+      </c>
+      <c r="F20" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <f>SUM(B19:B20)</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="37">
-        <f>B30</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="str">
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="35">
+        <f>B17/60*General!B3</f>
+        <v>468.75</v>
+      </c>
+      <c r="F21" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <f>SUM(E15:E21)</f>
-        <v>65.845317600000001</v>
-      </c>
-      <c r="F22" s="13" t="str">
+        <v>486.42452843333331</v>
+      </c>
+      <c r="F22" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
@@ -2775,94 +2808,90 @@
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <f>E22*(General!B5/100+1)</f>
-        <v>72.429849360000006</v>
-      </c>
-      <c r="F23" s="13" t="str">
+        <v>535.06698127666664</v>
+      </c>
+      <c r="F23" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13">
+        <f>SUM(B24:B26)</f>
         <v>5</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="12">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="39">
-        <f>SUM(B24:B26)</f>
-        <v>6</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="11" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="15">
-        <f>E23*E26</f>
-        <v>108.64477404000002</v>
-      </c>
-      <c r="F27" s="13" t="str">
-        <f>General!$B$6</f>
-        <v>$</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="D28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="17">
-        <v>134.99</v>
-      </c>
-      <c r="F28" s="13" t="str">
+      <c r="E28" s="14" cm="1">
+        <f t="array" ref="E28">SUM(SUM(E15:E17*E26)+(E18*E27)+SUM(E19:E21))</f>
+        <v>534.94811373333334</v>
+      </c>
+      <c r="F28" s="11" t="str">
         <f>General!$B$6</f>
         <v>$</v>
       </c>
@@ -2873,66 +2902,64 @@
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f>General!$B$6</f>
+        <v>$</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>0</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="11" t="str">
         <f>General!B6</f>
         <v>$</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="19"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="19"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D34" s="19"/>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D35" s="19"/>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="19"/>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D37" s="19"/>
-      <c r="E37" s="40"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="16">
+        <f>E28/E30</f>
+        <v>534.94811373333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1811" bottom="1.1811" header="0.78739999999999999" footer="0.78739999999999999"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2941,17 +2968,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF26417F-8A02-46DD-B132-2CCF93B69809}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{485442DC-ACFC-43C8-B3B5-588A821669E4}">
+          <x14:formula1>
+            <xm:f>Printers!$A$2:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9:C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC8C4137-30B2-4508-A933-AB127AE52684}">
           <x14:formula1>
             <xm:f>Materials!$A$2:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>B10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{8C8E7F28-B1E6-4C67-A703-75D02ED8BA9C}">
-          <x14:formula1>
-            <xm:f>Printers!$A$2:$A$46</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2964,7 +2991,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,610 +3001,609 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="1025" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="20" t="str">
+      <c r="A1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="19" t="str">
         <f>"Price ["&amp;General!B6&amp;"]"</f>
         <v>Price [$]</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="20" t="str">
+      <c r="D1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="19" t="str">
         <f>"Service costs per life ["&amp;General!B6&amp;"]"</f>
         <v>Service costs per life [$]</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="20" t="str">
+      <c r="F1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="19" t="str">
         <f>"Depreciation ["&amp;General!B6&amp;"/h]"</f>
         <v>Depreciation [$/h]</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="10">
         <v>1.75</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>2000</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>0.1</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="38">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f>(C2+E2)/D2</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="10">
         <v>1.75</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>400</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="21">
-        <v>0.16</v>
-      </c>
-      <c r="G3" s="46">
+      <c r="F3" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="G3" s="38">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f>(C3+E3)/D3</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="46">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="38">
         <v>0.1</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="46">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="38">
         <v>0.1</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="46">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="38">
         <v>0.1</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="46">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="38">
         <v>0.1</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="46">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="38">
         <v>0.1</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="46">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="38">
         <v>0.1</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="46">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="38">
         <v>0.1</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="46">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="38">
         <v>0.1</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="46">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="38">
         <v>0.1</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="46">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38">
         <v>0.1</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="46">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38">
         <v>0.1</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="46">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="38">
         <v>0.1</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="46">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="38">
         <v>0.1</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="46">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="38">
         <v>0.1</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="46">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="38">
         <v>0.1</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="46">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="38">
         <v>0.1</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="46">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="38">
         <v>0.1</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="46">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="38">
         <v>0.1</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="46">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="38">
         <v>0.1</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="46">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="38">
         <v>0.1</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="46">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="38">
         <v>0.1</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="46">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="38">
         <v>0.1</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="46">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="38">
         <v>0.1</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="46">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="38">
         <v>0.1</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="46">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="38">
         <v>0.1</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="46">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="38">
         <v>0.1</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="46">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="38">
         <v>0.1</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="46">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="38">
         <v>0.1</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="46">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="38">
         <v>0.1</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="46">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="38">
         <v>0.1</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="46">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="38">
         <v>0.1</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="46">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="38">
         <v>0.1</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="46">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="38">
         <v>0.1</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="46">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="38">
         <v>0.1</v>
       </c>
-      <c r="H37" s="23"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="46">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="38">
         <v>0.1</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="46">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="38">
         <v>0.1</v>
       </c>
-      <c r="H39" s="23"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="46">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="38">
         <v>0.1</v>
       </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="46">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="38">
         <v>0.1</v>
       </c>
-      <c r="H41" s="23"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="46">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="38">
         <v>0.1</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="46">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="38">
         <v>0.1</v>
       </c>
-      <c r="H43" s="23"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="46">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="38">
         <v>0.1</v>
       </c>
-      <c r="H44" s="23"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="46">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="38">
         <v>0.1</v>
       </c>
-      <c r="H45" s="23"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="46">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="38">
         <v>0.1</v>
       </c>
-      <c r="H46" s="23"/>
+      <c r="H46" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1811" bottom="1.1811" header="0.78739999999999999" footer="0.78739999999999999"/>
@@ -3591,7 +3617,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,1048 +3636,1048 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="24" t="str">
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="23" t="str">
         <f>"Spool Price ["&amp;General!B6&amp;"]"</f>
         <v>Spool Price [$]</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="24" t="str">
+      <c r="G1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="23" t="str">
         <f>"Price ["&amp;General!B6&amp;"/kg]"</f>
         <v>Price [$/kg]</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10">
         <v>1.75</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>26.5</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1.25</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>210</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>50</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <f t="shared" ref="H2:H38" si="0">D2/E2*4/(PI()*(B2/100)^2)/10</f>
         <v>332.60135046143023</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="27">
         <f t="shared" ref="I2:I38" si="1">C2/D2</f>
         <v>26.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10">
         <v>1.75</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>24.99</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>1.24</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>210</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>50</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10">
         <v>1.75</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>24.99</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>210</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>50</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <f t="shared" si="0"/>
         <v>381.42356704292456</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10">
         <v>1.75</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>20.99</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>1.25</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>210</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>50</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <f t="shared" si="0"/>
         <v>332.60135046143023</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f t="shared" si="1"/>
         <v>20.99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10">
         <v>1.75</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>17.989999999999998</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>1.24</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>210</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>50</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <f t="shared" si="1"/>
         <v>17.989999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10">
         <v>1.75</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>18.989999999999998</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>1.24</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>210</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>50</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <f t="shared" si="1"/>
         <v>18.989999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10">
         <v>1.75</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>24.99</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1.25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>210</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>50</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>332.60135046143023</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="10">
         <v>1.75</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>24.99</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>1.24</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>210</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>50</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10">
         <v>1.75</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>24.99</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>1.24</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>210</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>50</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="10">
         <v>1.75</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>24.99</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>1</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1.24</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>210</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>50</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10">
         <v>1.75</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>24.99</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>1.24</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>210</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>50</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="10">
         <v>1.75</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>24.99</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>1.24</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>210</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>50</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>335.2836194167644</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="10">
         <v>1.75</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>21.99</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>1.21</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>210</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>50</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>343.59643642709733</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <f t="shared" si="1"/>
         <v>21.99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>1.75</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>24.99</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>1.21</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>210</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>50</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>343.59643642709733</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10">
         <v>1.75</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>24.99</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>1</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>1.21</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>210</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>50</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>343.59643642709733</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
         <v>1.75</v>
       </c>
-      <c r="C17" s="25">
-        <v>23.99</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="24">
+        <v>25.99</v>
+      </c>
+      <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>1.27</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>240</v>
       </c>
-      <c r="G17" s="12">
-        <v>85</v>
-      </c>
-      <c r="H17" s="27">
+      <c r="G17" s="10">
+        <v>90</v>
+      </c>
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>327.36353391873052</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <f t="shared" si="1"/>
-        <v>23.99</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10">
         <v>1.75</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="27" t="e">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10">
         <v>1.75</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="27" t="e">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="28" t="e">
+      <c r="I19" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
         <v>1.75</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="27" t="e">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="28" t="e">
+      <c r="I20" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10">
         <v>1.75</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="27" t="e">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="28" t="e">
+      <c r="I21" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
         <v>1.75</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="27" t="e">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="28" t="e">
+      <c r="I22" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10">
         <v>1.75</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="27" t="e">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="28" t="e">
+      <c r="I23" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10">
         <v>1.75</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="27" t="e">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="28" t="e">
+      <c r="I24" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10">
         <v>1.75</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="27" t="e">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="28" t="e">
+      <c r="I25" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10">
         <v>1.75</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="27" t="e">
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="28" t="e">
+      <c r="I26" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10">
         <v>1.75</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="27" t="e">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="28" t="e">
+      <c r="I27" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10">
         <v>1.75</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="27" t="e">
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="28" t="e">
+      <c r="I28" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10">
         <v>1.75</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="27" t="e">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="28" t="e">
+      <c r="I29" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10">
         <v>1.75</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="27" t="e">
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="28" t="e">
+      <c r="I30" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10">
         <v>1.75</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="27" t="e">
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="28" t="e">
+      <c r="I31" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10">
         <v>1.75</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="27" t="e">
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="28" t="e">
+      <c r="I32" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10">
         <v>1.75</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="27" t="e">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="28" t="e">
+      <c r="I33" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10">
         <v>1.75</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="27" t="e">
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="28" t="e">
+      <c r="I34" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10">
         <v>1.75</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="27" t="e">
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="28" t="e">
+      <c r="I35" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10">
         <v>1.75</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="27" t="e">
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="28" t="e">
+      <c r="I36" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10">
         <v>1.75</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="27" t="e">
+      <c r="C37" s="28"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="28" t="e">
+      <c r="I37" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="27" t="e">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="28" t="e">
+      <c r="I38" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="23"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="23"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="23"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="23"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="23"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="23"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="23"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="23"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="23"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="23"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="23"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1811" bottom="1.1811" header="0.78739999999999999" footer="0.78739999999999999"/>
@@ -4668,7 +4694,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,60 +4704,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="C2" s="13" t="str">
+      <c r="A2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C2" s="11" t="str">
         <f>B6&amp;"/kWh"</f>
         <v>$/kWh</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="10">
         <v>45</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="11" t="str">
         <f>B6&amp;"/h"</f>
         <v>$/h</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="11" t="str">
         <f>B6&amp;"/h"</f>
         <v>$/h</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1811" bottom="1.1811" header="0.78739999999999999" footer="0.78739999999999999"/>
